--- a/texas_counties.xlsx
+++ b/texas_counties.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27815"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natasha/Documents/Fall2018/Science_Of_Elections/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saptarshighose/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2139AE32-5F0E-BB49-BC4F-EAE5F74501B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16220" xr2:uid="{4F98246B-22B3-A343-8578-96C20E72E6F1}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="House" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="292">
   <si>
     <t xml:space="preserve">Hal J Ridley Jr. </t>
   </si>
@@ -892,13 +897,22 @@
   </si>
   <si>
     <t>county</t>
+  </si>
+  <si>
+    <t>pro_gun</t>
+  </si>
+  <si>
+    <t>pro_choice</t>
+  </si>
+  <si>
+    <t>climate_pro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -958,6 +972,14 @@
       <name val="Times"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -979,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -992,6 +1014,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1305,11 +1328,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35854229-2E58-5D4C-BF53-2E7A55C78142}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E57" sqref="E57:E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1320,7 +1343,7 @@
     <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>288</v>
       </c>
@@ -1333,8 +1356,17 @@
       <c r="D1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>284</v>
       </c>
@@ -1348,7 +1380,7 @@
         <v>0.32466879853814529</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>283</v>
       </c>
@@ -1362,7 +1394,7 @@
         <v>0.38026829682458824</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>282</v>
       </c>
@@ -1376,7 +1408,7 @@
         <v>0.3611758474576271</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>281</v>
       </c>
@@ -1390,7 +1422,7 @@
         <v>0.42248958815363258</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>280</v>
       </c>
@@ -1404,7 +1436,7 @@
         <v>0.21438831697390473</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>279</v>
       </c>
@@ -1418,7 +1450,7 @@
         <v>0.24791539556640227</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>278</v>
       </c>
@@ -1432,7 +1464,7 @@
         <v>0.15650826446280991</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>277</v>
       </c>
@@ -1446,7 +1478,7 @@
         <v>0.34430781435938118</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>276</v>
       </c>
@@ -1460,7 +1492,7 @@
         <v>0.23928369994359841</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>275</v>
       </c>
@@ -1474,7 +1506,7 @@
         <v>0.34570509117914017</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>255</v>
       </c>
@@ -1488,7 +1520,7 @@
         <v>0.20827840759293434</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>248</v>
       </c>
@@ -1502,7 +1534,7 @@
         <v>0.15963362773961401</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
@@ -1516,7 +1548,7 @@
         <v>0.59416569843264644</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
@@ -1529,8 +1561,11 @@
       <c r="D15">
         <v>0.56494083145742546</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>271</v>
       </c>
@@ -1768,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>255</v>
       </c>
@@ -1782,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>254</v>
       </c>
@@ -1796,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>253</v>
       </c>
@@ -1810,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>252</v>
       </c>
@@ -1824,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
@@ -1838,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>251</v>
       </c>
@@ -1852,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>250</v>
       </c>
@@ -1866,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>249</v>
       </c>
@@ -1880,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>248</v>
       </c>
@@ -1894,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>247</v>
       </c>
@@ -1907,8 +1942,14 @@
       <c r="D42">
         <v>0.31838787669458596</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>246</v>
       </c>
@@ -1921,8 +1962,14 @@
       <c r="D43">
         <v>0.30928439751969161</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
@@ -1935,8 +1982,14 @@
       <c r="D44">
         <v>0.87192892297353386</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -1950,7 +2003,7 @@
         <v>0.78019673684357194</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>243</v>
       </c>
@@ -1964,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
@@ -1978,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>242</v>
       </c>
@@ -2125,6 +2178,9 @@
       <c r="D57">
         <v>0.16299932295192959</v>
       </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
       <c r="H57" s="1"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -2146,6 +2202,9 @@
       <c r="D58">
         <v>0.38228514981890022</v>
       </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
       <c r="H58" s="1"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -2167,6 +2226,9 @@
       <c r="D59">
         <v>0.22010162349733547</v>
       </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
       <c r="H59" s="1"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -2188,6 +2250,9 @@
       <c r="D60">
         <v>0.17576614804337576</v>
       </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
       <c r="H60" s="1"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -2209,6 +2274,9 @@
       <c r="D61">
         <v>0.29327545769594288</v>
       </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
       <c r="H61" s="1"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -2230,6 +2298,9 @@
       <c r="D62">
         <v>0.19750419966402688</v>
       </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
       <c r="H62" s="1"/>
       <c r="I62" s="2"/>
       <c r="J62" s="3"/>
@@ -2251,6 +2322,9 @@
       <c r="D63">
         <v>0.63106860976703794</v>
       </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
       <c r="H63" s="1"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -2272,6 +2346,9 @@
       <c r="D64">
         <v>0.33567640892835121</v>
       </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
       <c r="H64" s="1"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -2293,6 +2370,9 @@
       <c r="D65">
         <v>0.20277272090743592</v>
       </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
       <c r="H65" s="1"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -3183,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>170</v>
       </c>
@@ -3197,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>169</v>
       </c>
@@ -3211,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>168</v>
       </c>
@@ -3225,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>167</v>
       </c>
@@ -3239,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>166</v>
       </c>
@@ -3253,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>165</v>
       </c>
@@ -3267,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>164</v>
       </c>
@@ -3281,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>163</v>
       </c>
@@ -3295,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>162</v>
       </c>
@@ -3309,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>161</v>
       </c>
@@ -3323,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>101</v>
       </c>
@@ -3337,7 +3417,7 @@
         <v>0.38710868475881532</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>160</v>
       </c>
@@ -3351,7 +3431,7 @@
         <v>0.53759236218673034</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>159</v>
       </c>
@@ -3365,7 +3445,7 @@
         <v>0.95640302175298075</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>157</v>
       </c>
@@ -3378,8 +3458,14 @@
       <c r="D142">
         <v>0.83277027027027029</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>156</v>
       </c>
@@ -3392,8 +3478,14 @@
       <c r="D143">
         <v>0.79409417398244209</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>13</v>
       </c>
@@ -3406,8 +3498,14 @@
       <c r="D144">
         <v>0.31113136553787191</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>23</v>
       </c>
@@ -3420,8 +3518,14 @@
       <c r="D145">
         <v>0.73534635879218468</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>155</v>
       </c>
@@ -3434,8 +3538,14 @@
       <c r="D146">
         <v>0.87123572170301145</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>154</v>
       </c>
@@ -3448,8 +3558,14 @@
       <c r="D147">
         <v>0.32237673830594182</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>153</v>
       </c>
@@ -3462,8 +3578,14 @@
       <c r="D148">
         <v>0.18454724409448819</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>41</v>
       </c>
@@ -3476,8 +3598,14 @@
       <c r="D149">
         <v>0.15379901960784315</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>92</v>
       </c>
@@ -3490,8 +3618,14 @@
       <c r="D150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>56</v>
       </c>
@@ -3504,8 +3638,14 @@
       <c r="D151">
         <v>0.30649350649350648</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
@@ -3518,8 +3658,14 @@
       <c r="D152">
         <v>0.31043925248610821</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>149</v>
       </c>
@@ -3532,8 +3678,14 @@
       <c r="D153">
         <v>0.20387344766410409</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>148</v>
       </c>
@@ -3546,8 +3698,14 @@
       <c r="D154">
         <v>0.29934666402692534</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>147</v>
       </c>
@@ -3560,8 +3718,14 @@
       <c r="D155">
         <v>0.18779407694436756</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>146</v>
       </c>
@@ -3574,8 +3738,14 @@
       <c r="D156">
         <v>0.2070030895983522</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>145</v>
       </c>
@@ -3588,8 +3758,14 @@
       <c r="D157">
         <v>0.11550802139037433</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>144</v>
       </c>
@@ -3602,8 +3778,14 @@
       <c r="D158">
         <v>0.22715684959076882</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>143</v>
       </c>
@@ -3616,8 +3798,14 @@
       <c r="D159">
         <v>0.32195064599145645</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>142</v>
       </c>
@@ -3630,8 +3818,14 @@
       <c r="D160">
         <v>0.23278569702826771</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>141</v>
       </c>
@@ -3644,8 +3838,14 @@
       <c r="D161">
         <v>0.29572674848440039</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>11</v>
       </c>
@@ -3658,8 +3858,14 @@
       <c r="D162">
         <v>0.64246691756707541</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>7</v>
       </c>
@@ -3673,7 +3879,7 @@
         <v>0.42361589999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>138</v>
       </c>
@@ -3687,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>137</v>
       </c>
@@ -3701,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>136</v>
       </c>
@@ -3715,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>135</v>
       </c>
@@ -3729,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>134</v>
       </c>
@@ -3743,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>133</v>
       </c>
@@ -3757,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>132</v>
       </c>
@@ -3771,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>131</v>
       </c>
@@ -3785,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>130</v>
       </c>
@@ -3799,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>129</v>
       </c>
@@ -3813,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>128</v>
       </c>
@@ -3827,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>127</v>
       </c>
@@ -3841,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>126</v>
       </c>
